--- a/ls_4/BD.xlsx
+++ b/ls_4/BD.xlsx
@@ -16,22 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Время игры</t>
-  </si>
-  <si>
-    <t>Дни в неделю</t>
-  </si>
-  <si>
-    <t>Язык общения</t>
-  </si>
-  <si>
-    <t>Список активностей</t>
-  </si>
-  <si>
-    <t>Предпочтения игрока о клане</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Запросы</t>
   </si>
@@ -40,6 +25,30 @@
   </si>
   <si>
     <t>Игроки</t>
+  </si>
+  <si>
+    <t>Player ID</t>
+  </si>
+  <si>
+    <t>Clan ID</t>
+  </si>
+  <si>
+    <t>Параметры запроса</t>
+  </si>
+  <si>
+    <t>Параметры клана</t>
+  </si>
+  <si>
+    <t>Параметры игрока</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>JSON(Время игры, Дни в неделю, Язык общения, Список активностей)</t>
+  </si>
+  <si>
+    <t>Мои предпочтения -&gt;</t>
   </si>
 </sst>
 </file>
@@ -76,8 +85,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,55 +386,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F6"/>
+  <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F6:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
